--- a/Optimization_Resource_Management.xlsx
+++ b/Optimization_Resource_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeoffreyr\Desktop\MIT\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7E3C5-D2DA-447F-AB3A-A04C8D7546ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5927FA-52EB-4AA3-96ED-A0AAB6591385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FF8DCF86-6C1C-4025-B467-9A9F381817F0}"/>
   </bookViews>
@@ -26,46 +26,61 @@
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Sheet1!$B$15</definedName>
-    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Sheet1!$B$24</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Sheet1!$B$18</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Sheet1!$B$19</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Sheet1!$B$20</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Sheet1!$B$21</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Sheet1!$B$22</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Sheet1!$B$23</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Sheet1!$B$24</definedName>
-    <definedName name="solver_lhs9" localSheetId="3" hidden="1">Sheet1!$B$24</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">Sheet1!$B$23</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">Sheet1!$B$3</definedName>
+    <definedName name="solver_lhs12" localSheetId="3" hidden="1">Sheet1!$B$5</definedName>
+    <definedName name="solver_lhs13" localSheetId="3" hidden="1">Sheet1!$B$6</definedName>
+    <definedName name="solver_lhs14" localSheetId="3" hidden="1">Sheet1!$B$7</definedName>
+    <definedName name="solver_lhs15" localSheetId="3" hidden="1">Sheet1!$B$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Sheet1!$B$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Sheet1!$B$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Sheet1!$B$18</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Sheet1!$B$19</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Sheet1!$B$2</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Sheet1!$B$20</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Sheet1!$B$21</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">Sheet1!$B$22</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">15</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Sheet1!$B$12</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel10" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel10" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel12" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel13" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel14" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel15" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel7" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">Sheet1!$D$15</definedName>
-    <definedName name="solver_rhs10" localSheetId="3" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Sheet1!$D$18</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Sheet1!$D$19</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Sheet1!$D$20</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Sheet1!$D$21</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">Sheet1!$D$22</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">Sheet1!$D$23</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Sheet1!$D$24</definedName>
-    <definedName name="solver_rhs9" localSheetId="3" hidden="1">Sheet1!$D$24</definedName>
+    <definedName name="solver_rhs10" localSheetId="3" hidden="1">Sheet1!$D$23</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs12" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs13" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs14" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs15" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Sheet1!$D$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Sheet1!$B$17</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Sheet1!$D$18</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Sheet1!$D$19</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">Sheet1!$D$20</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Sheet1!$D$21</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">Sheet1!$D$22</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
@@ -74,7 +89,7 @@
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
@@ -1764,7 +1779,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,7 +1806,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -1816,7 +1831,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
@@ -1851,7 +1866,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1861,7 +1876,7 @@
         <v>89</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1871,7 +1886,7 @@
         <v>90</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1881,7 +1896,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1914,7 +1929,7 @@
       </c>
       <c r="B12" s="3">
         <f>((B2+B4+B5+B7)*H2+(B3+B6+B8)*H3)*12</f>
-        <v>4320</v>
+        <v>3996</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1961,7 +1976,7 @@
       </c>
       <c r="B16" s="3">
         <f>(B2+B4+B5+B7)*0.7 - B3-B6-B8</f>
-        <v>14</v>
+        <v>-1.3000000000000007</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1976,7 +1991,7 @@
       </c>
       <c r="B17" s="3">
         <f>(B3+B6+B8)*0.3-B2-B4-B5-B7</f>
-        <v>-20</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
